--- a/build/in/v2solutions/hybrid/tsmodules/VWR_TestCases.xlsx
+++ b/build/in/v2solutions/hybrid/tsmodules/VWR_TestCases.xlsx
@@ -1963,7 +1963,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -1995,7 +1995,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2061,7 +2061,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:3">
